--- a/2022/Symphony/February/15.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/15.02.2022/MC Bank Statement February-2022.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>CD Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harun </t>
   </si>
 </sst>
 </file>
@@ -9305,11 +9308,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9324,6 +9322,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9337,7 +9340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -11108,14 +11111,14 @@
         <v>347780</v>
       </c>
       <c r="C17" s="58">
-        <v>375410</v>
+        <v>355410</v>
       </c>
       <c r="D17" s="55">
         <v>1300</v>
       </c>
       <c r="E17" s="55">
         <f t="shared" si="0"/>
-        <v>376710</v>
+        <v>356710</v>
       </c>
       <c r="F17" s="243"/>
       <c r="G17" s="255"/>
@@ -12750,7 +12753,7 @@
       </c>
       <c r="C33" s="275">
         <f>SUM(C5:C32)</f>
-        <v>5505713</v>
+        <v>5485713</v>
       </c>
       <c r="D33" s="274">
         <f>SUM(D5:D32)</f>
@@ -12758,11 +12761,11 @@
       </c>
       <c r="E33" s="274">
         <f>SUM(E5:E32)</f>
-        <v>5534900</v>
+        <v>5514900</v>
       </c>
       <c r="F33" s="274">
         <f>B33-E33</f>
-        <v>107830</v>
+        <v>127830</v>
       </c>
       <c r="G33" s="276"/>
       <c r="H33" s="148"/>
@@ -21602,11 +21605,19 @@
       <c r="CS111" s="147"/>
     </row>
     <row r="112" spans="1:97">
-      <c r="A112" s="238"/>
-      <c r="B112" s="59"/>
+      <c r="A112" s="238" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="59" t="s">
+        <v>236</v>
+      </c>
       <c r="C112" s="240"/>
-      <c r="D112" s="221"/>
-      <c r="E112" s="189"/>
+      <c r="D112" s="221">
+        <v>20000</v>
+      </c>
+      <c r="E112" s="189" t="s">
+        <v>229</v>
+      </c>
       <c r="F112" s="147"/>
       <c r="G112" s="147"/>
       <c r="H112" s="197"/>
@@ -22373,7 +22384,7 @@
       <c r="C119" s="347"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2459855</v>
+        <v>2479855</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22580,7 +22591,7 @@
       <c r="C121" s="335"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2459855</v>
+        <v>2479855</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33813,7 +33824,7 @@
   <dimension ref="A1:Y218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33990,7 +34001,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="257">
-        <v>93925.176300000399</v>
+        <v>73925.176300000399</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="279"/>
@@ -34079,7 +34090,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="257">
-        <v>2459855</v>
+        <v>2479855</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
